--- a/Documentos/Resultados.xlsx
+++ b/Documentos/Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd-fl\Desktop\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd-fl\Desktop\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0955ED-0AFD-409A-A890-709899B97841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F8480-724B-4EE3-8D28-05D5778381F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B089666C-F8B5-4CF2-BED5-5BF06D964A3F}"/>
   </bookViews>
@@ -251,28 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -289,6 +270,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -309,6 +308,1691 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Analisis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Resultados</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V. Inversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V. Inversion (Normalizado)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cant. Computadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personal conoce TIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Especialistas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intranet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pag. Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$3:$I$4</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$B$3:$I$3</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R. Lineal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. Logistica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayesiano</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arbol DD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>0.65869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0512-46EB-B1AE-ABB27FB4357B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="794021280"/>
+        <c:axId val="794022720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="794021280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794022720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794022720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794021280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28013</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79D6F00-2656-853D-9AD3-13CCCE8B6EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FD185-EFD1-4906-905F-09C014FD3FA7}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="A3:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,263 +2313,239 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="3">
         <v>0.17</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <v>0.51239999999999997</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>-5.33E-2</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>-1.2E-2</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
         <v>-1E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>0.25</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>0.51</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3">
         <v>0.19</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="3">
         <v>0.38</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="4">
         <v>0.35</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3">
         <v>-0.75</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="4">
         <v>0.1399</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="4">
         <v>0.37069999999999997</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
         <v>-0.3</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="3">
         <v>0.02</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>0.67</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="4">
         <v>-0.4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="4">
         <v>0.04</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>0.75</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>0.75</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="4">
         <v>-0.02</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="4">
         <v>0.19</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>0.98540000000000005</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>0.16</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="4">
         <v>0.39</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="4">
         <v>0.45</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>0.68</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>0.6</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="4">
         <v>-0.44</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="4">
         <v>0.04</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>0.65869999999999995</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="3">
         <v>-0.32</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="3">
         <v>0.12</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="3">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -899,5 +2559,6 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>